--- a/C# Записки.xlsx
+++ b/C# Записки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\cSharpBasicsSoftUni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\cSharpBasicsSoftUni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53AEC6-08BF-4EE0-A1E3-58899A89805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A3CB23-B92A-470E-9B59-7249C6398876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="188">
   <si>
     <t>Номер</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Отделен код които сме написали за да прави нещо</t>
   </si>
   <si>
-    <t>Отделен проект може да бъде калкулатор които прати определени пресмятания или програмка която да ни пита нужните неща за да се направи опис на автомобил , а може би програма за тестване на направен от друг човек код.Важно имената трябва да се пишат Слято с големи букви на всяко започване на проекта: 01Calculator ; 02BetterCalculator и т.н. Важно е за ГитХъб!!!</t>
-  </si>
-  <si>
     <t>Лекция 1 Първи Стъпки в Програмирането</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Получава се при стартиране на програма</t>
   </si>
   <si>
-    <t>Още преди да сме стартирали програмата си изписва такава грешка и C# я визуализира с червена вълнообразна черта в областта на грешката</t>
-  </si>
-  <si>
     <t>Snippets</t>
   </si>
   <si>
@@ -456,9 +450,6 @@
     <t>Фроматиране стар начин</t>
   </si>
   <si>
-    <t>Console.WriteLine($"{2.356:F2}"); по-този начин казваме ,че закръгляме до втората цифра и резултата ще е 2.36 понеже тратата цифра е по-голяма или равна на 5 и се закръгля на горе ,ако е по-малка от 5 тогава не се закръгля и ще даде 2.35 Важно е да се отбележе ,че при този метод ако цифрата е 2.3 а сме сложили F2 или до втория знак конзолата ще изпише 2.30 понеже ще добави 0 за да станат нужния брой цифри след десеттичната запетая. Това не се случва ако използваме класа Math.Round защото той е ориентиран по математическите правила ,а не както при интерполация да е по-скоро визоализация приоритета. Та ако е математически стриктно Math.Round ако визоализиране стриктно Интерполация</t>
-  </si>
-  <si>
     <t xml:space="preserve">F5 </t>
   </si>
   <si>
@@ -577,6 +568,27 @@
   </si>
   <si>
     <t>(Постфиксна) връща 'а' и намалява с 1</t>
+  </si>
+  <si>
+    <t>Отделен проект може да бъде калкулатор които прави определени пресмятания или програмка която да ни пита нужните неща за да се направи опис на автомобил , а може би програма за тестване на направен от друг човек код.Важно имената трябва да се пишат Слято с големи букви на всяко започване на проекта: 01Calculator ; 02BetterCalculator и т.н. Важно е за ГитХъб!!!</t>
+  </si>
+  <si>
+    <t>Още преди да сме стартирали програмата си изписва такава грешка и C# я визуализира с червена вълнообразна черта в областта на грешката. ВАЖНО понякога такава грешка се визоализира и малко по-надолу от местото на проблема случва се да съм забравил ; и да ми даде грешка не само преди местото на знака ; а и след него тоест може да е липсващ знак по-средата.</t>
+  </si>
+  <si>
+    <t>Места с такъв фон са доказано ,че работят по-бързо при писане на програма.Тоест ако е възможно да се ползват.</t>
+  </si>
+  <si>
+    <t>Console.WriteLine($"{2.356:F2}"); по-този начин казваме ,че закръгляме до втората цифра и резултата ще е 2.36 понеже третата цифра е по-голяма или равна на 5 и се закръгля на горе ,ако е по-малка от 5 тогава не се закръгля и ще даде 2.35 Важно е да се отбележе ,че при този метод ако цифрата е 2.3 а сме сложили F2 или до втория знак конзолата ще изпише 2.30 понеже ще добави 0 за да станат нужния брой цифри след десеттичната запетая. Това не се случва ако използваме класа Math.Round защото той е ориентиран по математическите правила ,а не както при интерполация да е по-скоро визоализация приоритета. Та ако е математически стриктно Math.Round ако визоализиране стриктно Интерполация</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>това е постоянен loop</t>
+  </si>
+  <si>
+    <t>за разлика от for въвежда задължително само условие примерно (а &gt; 0) и този цикъл ще се върти докато 'а' не стане &gt; 0 но е почти задължително да има въте цикъла начин да се доближава до (а&gt;0) или да се сложи if проверка с break; команда която да прекъсне цикъла</t>
   </si>
 </sst>
 </file>
@@ -592,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -634,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,8 +727,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6A49369-14EE-4030-9240-E82A5E00E66A}" name="Table13" displayName="Table13" ref="A36:D67" totalsRowShown="0">
-  <autoFilter ref="A36:D67" xr:uid="{C6A49369-14EE-4030-9240-E82A5E00E66A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6A49369-14EE-4030-9240-E82A5E00E66A}" name="Table13" displayName="Table13" ref="A36:D57" totalsRowShown="0">
+  <autoFilter ref="A36:D57" xr:uid="{C6A49369-14EE-4030-9240-E82A5E00E66A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C2C72E84-6297-4A6C-AEFB-480A29A523D2}" name="Номер"/>
     <tableColumn id="2" xr3:uid="{6968DC62-A9E8-4EF2-AEA4-661FBEE49385}" name="Символ" dataDxfId="8"/>
@@ -719,8 +740,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE811A6A-BCDA-437D-924F-9A69E816EFE6}" name="Table134" displayName="Table134" ref="A70:D101" totalsRowShown="0">
-  <autoFilter ref="A70:D101" xr:uid="{FE811A6A-BCDA-437D-924F-9A69E816EFE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FE811A6A-BCDA-437D-924F-9A69E816EFE6}" name="Table134" displayName="Table134" ref="A60:D62" totalsRowShown="0">
+  <autoFilter ref="A60:D62" xr:uid="{FE811A6A-BCDA-437D-924F-9A69E816EFE6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A03EBC77-98A8-46C7-B8E8-975CAE47555B}" name="Номер"/>
     <tableColumn id="2" xr3:uid="{1B6917B1-EA7C-4609-A159-3CBD06E0356B}" name="Символ" dataDxfId="5"/>
@@ -732,8 +753,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7080C81A-FB8B-40A6-A834-86A0DEA37ECA}" name="Table1345" displayName="Table1345" ref="A104:D135" totalsRowShown="0">
-  <autoFilter ref="A104:D135" xr:uid="{7080C81A-FB8B-40A6-A834-86A0DEA37ECA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7080C81A-FB8B-40A6-A834-86A0DEA37ECA}" name="Table1345" displayName="Table1345" ref="A65:D72" totalsRowShown="0">
+  <autoFilter ref="A65:D72" xr:uid="{7080C81A-FB8B-40A6-A834-86A0DEA37ECA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CEBADCC3-F930-4DAA-8BAC-D42498D38C6C}" name="Номер"/>
     <tableColumn id="2" xr3:uid="{149376C6-3EBA-4D39-B7E5-FF5CC0343BC6}" name="Символ" dataDxfId="2"/>
@@ -1007,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,16 +1040,16 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="122.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1044,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1059,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1076,7 +1097,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,7 +1154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1147,7 +1168,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,7 +1199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1189,7 +1210,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1197,13 +1218,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,13 +1232,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1225,13 +1246,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1239,237 +1260,240 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1477,13 +1501,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,12 +1516,12 @@
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1518,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,13 +1556,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1570,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1598,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1588,13 +1612,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1602,13 +1626,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1616,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1630,13 +1654,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1644,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1658,13 +1682,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1672,13 +1696,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1710,13 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1724,13 @@
         <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1714,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1728,13 +1752,13 @@
         <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1742,13 +1766,13 @@
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1756,13 +1780,13 @@
         <v>18</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1770,13 +1794,13 @@
         <v>19</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1784,13 +1808,13 @@
         <v>20</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,695 +1822,207 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>22</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>23</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>24</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>25</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>26</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>27</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>28</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>29</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>31</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>3</v>
-      </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>6</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>8</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>11</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>13</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>15</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>16</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>17</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>18</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>19</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>20</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>21</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>22</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>23</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>24</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>25</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>26</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>27</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>28</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>29</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>30</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>31</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>3</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>4</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>5</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>6</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>7</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>8</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>9</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>10</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>11</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>12</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>13</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>14</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>15</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>16</v>
-      </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>17</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>18</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>19</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>20</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>21</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>22</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>23</v>
-      </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>24</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>25</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>26</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>27</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>28</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>29</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>30</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>31</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A64:D64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/C# Записки.xlsx
+++ b/C# Записки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi Kirev\Desktop\IT All\cSharpBasicsSoftUni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A3CB23-B92A-470E-9B59-7249C6398876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8D4269-9788-47AB-901A-27EF7F4F4431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="197">
   <si>
     <t>Номер</t>
   </si>
@@ -589,6 +589,33 @@
   </si>
   <si>
     <t>за разлика от for въвежда задължително само условие примерно (а &gt; 0) и този цикъл ще се върти докато 'а' не стане &gt; 0 но е почти задължително да има въте цикъла начин да се доближава до (а&gt;0) или да се сложи if проверка с break; команда която да прекъсне цикъла</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Оператор за прекъсване</t>
+  </si>
+  <si>
+    <t>Когато сме в цикъл While  или For командата break спира само и единствено цикъла в който е дори и да са цикъл в цикъл на няколко етапа тази команда спира само цикъла в който е и НЕ спира другия ако няма друга команда break;</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>Оператор за "рестарт"</t>
+  </si>
+  <si>
+    <t>там където е поставена командата continue като се задейства при While или For loop става така ,че тя започва от началото на loopa без да изпълнява нещата по-надолу вътре в loopa командите.</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Оператор за "край"</t>
+  </si>
+  <si>
+    <t>return се използва когато имаме цикли или проверки при които се върти все едно тото и в момента в който играча познае правилната цифра му се изписва примерно честито това е правилното число и се спира цялата логика като завършване на играта все едно но се ползва и за отделни цикли.</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,6 +2042,39 @@
       </c>
       <c r="D74" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
